--- a/biology/Botanique/Klebsormidium/Klebsormidium.xlsx
+++ b/biology/Botanique/Klebsormidium/Klebsormidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klebsormidium est un genre d’algues vertes charophytes filamenteuses de la famille des Klebsormidiaceae, comprenant 20 espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klebsormidium est un genre d’algues vertes charophytes filamenteuses de la famille des Klebsormidiaceae, comprenant 20 espèces.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom fut proposé en 1972 en hommage au botaniste allemand Georg Albrecht Klebs[note 1] pour résoudre la confusion sur le genre Hormidium (en) nom d'une orchidée précédemment donné à l'algue[note 2]. Le nom est une sorte de mot-valise composé de "klebs" et de "hormidium" sans sa première lettre.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (21 août 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (21 août 2014) :
 Klebsormidium acidophilum P.M.Novis
 Klebsormidium bilatum Lokhorst
 Klebsormidium dissectum (F.Gay) H.Ettl &amp; Gärtner
@@ -565,10 +581,10 @@
 Klebsormidium subtile (Kützing) Tracanna ex Tell
 Klebsormidium subtilissimum (Rabenhorst) P.C.Silva, K.R.Mattox &amp; W.H.Blackwell
 Klebsormidium tribonematoideum (Skuja) Hindák
-Selon ITIS      (21 août 2014)[2] :
+Selon ITIS      (21 août 2014) :
 Klebsormidium flaccidum (Kuetz.) Silva &amp; al
 Klebsormidium subtilissimum (Rabh.) Silva &amp; al
-Selon World Register of Marine Species                               (21 août 2014)[3] :
+Selon World Register of Marine Species                               (21 août 2014) :
 Klebsormidium acidophilum P.M.Novis, 2006
 Klebsormidium bilatum Lokhorst, 1996
 Klebsormidium crenulatum (Kützing) Lokhorst, 1985
